--- a/Source/DemoManufacturing/docs/MasterUpload.xlsx
+++ b/Source/DemoManufacturing/docs/MasterUpload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="155">
   <si>
     <t>Color</t>
   </si>
@@ -327,51 +327,6 @@
     <t>Rear</t>
   </si>
   <si>
-    <t>CUST002</t>
-  </si>
-  <si>
-    <t>CUST003</t>
-  </si>
-  <si>
-    <t>CUST004</t>
-  </si>
-  <si>
-    <t>CUST005</t>
-  </si>
-  <si>
-    <t>CUST006</t>
-  </si>
-  <si>
-    <t>CUST007</t>
-  </si>
-  <si>
-    <t>CUST008</t>
-  </si>
-  <si>
-    <t>CUST009</t>
-  </si>
-  <si>
-    <t>CUST010</t>
-  </si>
-  <si>
-    <t>CUST011</t>
-  </si>
-  <si>
-    <t>CUST012</t>
-  </si>
-  <si>
-    <t>CUST013</t>
-  </si>
-  <si>
-    <t>CUST014</t>
-  </si>
-  <si>
-    <t>CUST015</t>
-  </si>
-  <si>
-    <t>CUST016</t>
-  </si>
-  <si>
     <t>CUST017</t>
   </si>
   <si>
@@ -394,69 +349,6 @@
   </si>
   <si>
     <t>CUST024</t>
-  </si>
-  <si>
-    <t>CUST025</t>
-  </si>
-  <si>
-    <t>CUST026</t>
-  </si>
-  <si>
-    <t>CUST027</t>
-  </si>
-  <si>
-    <t>CUST028</t>
-  </si>
-  <si>
-    <t>CUST029</t>
-  </si>
-  <si>
-    <t>CUST030</t>
-  </si>
-  <si>
-    <t>CUST031</t>
-  </si>
-  <si>
-    <t>CUST032</t>
-  </si>
-  <si>
-    <t>CUST033</t>
-  </si>
-  <si>
-    <t>CUST034</t>
-  </si>
-  <si>
-    <t>CUST035</t>
-  </si>
-  <si>
-    <t>CUST036</t>
-  </si>
-  <si>
-    <t>CUST037</t>
-  </si>
-  <si>
-    <t>CUST038</t>
-  </si>
-  <si>
-    <t>CUST039</t>
-  </si>
-  <si>
-    <t>CUST040</t>
-  </si>
-  <si>
-    <t>CUST041</t>
-  </si>
-  <si>
-    <t>CUST042</t>
-  </si>
-  <si>
-    <t>CUST043</t>
-  </si>
-  <si>
-    <t>CUST044</t>
-  </si>
-  <si>
-    <t>CUST045</t>
   </si>
   <si>
     <t>K2 3232dsdsd2121212122</t>
@@ -929,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,6 +831,7 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1005,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1028,10 +921,10 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1051,10 +944,10 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1074,10 +967,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1097,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1120,10 +1013,10 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1143,10 +1036,10 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1166,10 +1059,10 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1189,10 +1082,10 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1212,10 +1105,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1235,10 +1128,10 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1258,10 +1151,10 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1281,10 +1174,10 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1304,10 +1197,10 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1327,10 +1220,10 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1350,10 +1243,10 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1373,10 +1266,10 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1396,10 +1289,10 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1419,10 +1312,10 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1442,10 +1335,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1465,10 +1358,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1488,10 +1381,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1511,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1534,10 +1427,10 @@
         <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1557,10 +1450,10 @@
         <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1580,10 +1473,10 @@
         <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1603,10 +1496,10 @@
         <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1626,10 +1519,10 @@
         <v>102</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1649,10 +1542,10 @@
         <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1672,10 +1565,10 @@
         <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1695,10 +1588,10 @@
         <v>102</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1718,10 +1611,10 @@
         <v>102</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1741,10 +1634,10 @@
         <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1764,10 +1657,10 @@
         <v>102</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1787,10 +1680,10 @@
         <v>102</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1810,10 +1703,10 @@
         <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1833,10 +1726,10 @@
         <v>102</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1856,10 +1749,10 @@
         <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1879,10 +1772,10 @@
         <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1902,10 +1795,10 @@
         <v>102</v>
       </c>
       <c r="F42" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1925,10 +1818,10 @@
         <v>102</v>
       </c>
       <c r="F43" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1948,10 +1841,10 @@
         <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1971,10 +1864,10 @@
         <v>102</v>
       </c>
       <c r="F45" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,10 +1887,10 @@
         <v>102</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Source/DemoManufacturing/docs/MasterUpload.xlsx
+++ b/Source/DemoManufacturing/docs/MasterUpload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="152">
   <si>
     <t>Color</t>
   </si>
@@ -24,9 +24,6 @@
     <t>MajorVariant</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>CustomerCode</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>K2</t>
   </si>
   <si>
-    <t>Front</t>
-  </si>
-  <si>
     <t>CUST001</t>
   </si>
   <si>
@@ -322,9 +316,6 @@
   </si>
   <si>
     <t>K46</t>
-  </si>
-  <si>
-    <t>Rear</t>
   </si>
   <si>
     <t>CUST017</t>
@@ -819,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,20 +821,19 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -854,1043 +844,905 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
